--- a/Stefanini/Stefanini.Clientes/Stefanini.Cliente.Experian/Informes.xlsx
+++ b/Stefanini/Stefanini.Clientes/Stefanini.Cliente.Experian/Informes.xlsx
@@ -1,23 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e10991a\Documents\Experian.Agile\Experian.Equipos\Experian.Nucleo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B5F95EC5-502A-4BEF-AF81-AA6C7F2D804A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{968BEF0F-1BBE-4632-A0CE-F094D5844494}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7485" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte Horas" sheetId="2" r:id="rId1"/>
     <sheet name="Planeacion" sheetId="3" r:id="rId2"/>
-    <sheet name="Ejecutado" sheetId="4" r:id="rId3"/>
+    <sheet name="Hoja4" sheetId="8" r:id="rId3"/>
+    <sheet name="Hoja5" sheetId="9" r:id="rId4"/>
+    <sheet name="Hoja6" sheetId="10" r:id="rId5"/>
+    <sheet name="Ejecutado" sheetId="4" r:id="rId6"/>
+    <sheet name="Resumen Plan Ejecutado" sheetId="5" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Ejecutado!$B$38:$F$74</definedName>
+  </definedNames>
   <calcPr calcId="179017"/>
+  <pivotCaches>
+    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="1" r:id="rId9"/>
+    <pivotCache cacheId="2" r:id="rId10"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="240">
   <si>
     <t>Inmersion Equipo Seguridad</t>
   </si>
@@ -336,13 +348,424 @@
   </si>
   <si>
     <t>Defincion de Lineamiento del proyecto</t>
+  </si>
+  <si>
+    <t>Etiquetas de fila</t>
+  </si>
+  <si>
+    <t>Suma de Tiempo</t>
+  </si>
+  <si>
+    <t>Total general</t>
+  </si>
+  <si>
+    <t>Cuenta de Actividad</t>
+  </si>
+  <si>
+    <t>Objetivos</t>
+  </si>
+  <si>
+    <t>Etiquetas de columna</t>
+  </si>
+  <si>
+    <t>Capacitaciones Internas y Administrativo</t>
+  </si>
+  <si>
+    <t>Inmersion Equipos Decisor, Celula de Datos,  Mi data al dia, Validador Ingresos,Seguro, Antifraude</t>
+  </si>
+  <si>
+    <t>gestion y kick off proyecto coach Agile</t>
+  </si>
+  <si>
+    <t>Analisis de informacion recolectada de los equipos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objetivos </t>
+  </si>
+  <si>
+    <t>Horas</t>
+  </si>
+  <si>
+    <t>Planeacion semanal, recepcion de equipo, accesos instalaciones y Acuerdos de Confidencialidad</t>
+  </si>
+  <si>
+    <t>Revision de HU Equipo Antifraude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inmersion equipos Celula de Datos,  Validador Ingreso, Mi data al Dia, seguros,  Decisor, Antifraude,  bus </t>
+  </si>
+  <si>
+    <t>Inception Nucleo de Transformacion, Revisión contenido y reunión Charla , Reuniones de contextalizacion del proyecto de Transformacion lideres de QA, Desarrollo, PMP, planecion taller Comité Colombia</t>
+  </si>
+  <si>
+    <t>Preparacion Inception Facturacion Electrónica</t>
+  </si>
+  <si>
+    <t>Semana 1 (17 sep - 21 sep)</t>
+  </si>
+  <si>
+    <t>Analisis de Datos, revision de artefactos, Informe Incpetion</t>
+  </si>
+  <si>
+    <t>Capacitaciones Internas de Ingreso, Capacitación global sobre anticorrupción de Experian, Security Essentials, Habeas Data Financiero, Guie People Express, Ley general de Protección de Datos, Security Essentials</t>
+  </si>
+  <si>
+    <t>Planeacion de Actividades para la inmersion con los Equipos</t>
+  </si>
+  <si>
+    <t>Planeacion Inception Equipo Celula Datos</t>
+  </si>
+  <si>
+    <t>Revisión Info Proyectos BAU, Diana Paez</t>
+  </si>
+  <si>
+    <t>inmersion</t>
+  </si>
+  <si>
+    <t>Creacion de Radares Equipos Mi Data Al Dia, Decisor, Celula Datos, Seguros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reunion equipo Calidad </t>
+  </si>
+  <si>
+    <t>Informe General de Hallazgos</t>
+  </si>
+  <si>
+    <t>Preparacion Reporte Nucleo tranformacion Avances del proyecto</t>
+  </si>
+  <si>
+    <t>Preparacion Actividades Reunion Seguimiento del Nucleo de Transformacion</t>
+  </si>
+  <si>
+    <t>Reunion de Comité Agile</t>
+  </si>
+  <si>
+    <t>Facilitacion Inception Celula Datos Req marcación TEC y  Garantías Mobiliarias</t>
+  </si>
+  <si>
+    <t>Creacion de reporte equipos Mi Data Al Dia, Decisor, Celula Datos, Seguros, Validador de Ingreso</t>
+  </si>
+  <si>
+    <t>Creacion de Radares Equipos Antifraude, Ebyington, Seguridad, SME, SGID, Bus</t>
+  </si>
+  <si>
+    <t>Entrevista PO de Equipos Mi Data Al Dia, Decisor, Celula Datos, Seguros, Antifraude, Ebyington, Seguridad, SME, SGID, Bus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacitacion interna de  Seguridad </t>
+  </si>
+  <si>
+    <t>administrativo</t>
+  </si>
+  <si>
+    <t>Analisis de proceso desarrollo</t>
+  </si>
+  <si>
+    <t>Inmersion del proceso de Desarrollo, Despliegue, testing</t>
+  </si>
+  <si>
+    <t>Analisis y Reportes Finales de Inmersion Experian</t>
+  </si>
+  <si>
+    <t>Planeacion Semana 5</t>
+  </si>
+  <si>
+    <t>definicion de Actividades Sprint planing Nucleo Transformacion</t>
+  </si>
+  <si>
+    <t>Revision y Analisis de informes Inmersion</t>
+  </si>
+  <si>
+    <t>Total Horas</t>
+  </si>
+  <si>
+    <t>informe Inception Nucleo Transfromacion</t>
+  </si>
+  <si>
+    <t>Acompañamiento PI Planing Celula Datos Req Cuenta Ahorros</t>
+  </si>
+  <si>
+    <t>Reunion plan comunicación proyecto en agilidad</t>
+  </si>
+  <si>
+    <t>Inmersion Equipo de Seguridad</t>
+  </si>
+  <si>
+    <t>Revision Estado Actual de proyectos en curso</t>
+  </si>
+  <si>
+    <t>Inmersion Equipo de Ebyington</t>
+  </si>
+  <si>
+    <t>Diseño de encuentas as product Owners</t>
+  </si>
+  <si>
+    <t>Preparacion de taller de Agilidad Lideres Experian</t>
+  </si>
+  <si>
+    <t>Diseño de Plantilla de Radares Equipo</t>
+  </si>
+  <si>
+    <t>reunion de Revision con Equipo Experian taller de Agilidad Lideres</t>
+  </si>
+  <si>
+    <t>Inmersion Equipo Sme</t>
+  </si>
+  <si>
+    <t>refinamiento taller de Agilidad Lideres Experian</t>
+  </si>
+  <si>
+    <t>reunion DevOps / PaaS Spanish Latam  Diego Fernadez, Fabian Salazar</t>
+  </si>
+  <si>
+    <t>Consolidacion de Informacion de Todos los Equipos de Inmersion</t>
+  </si>
+  <si>
+    <t>Semana 4 (01 Oct - 05 Oct)</t>
+  </si>
+  <si>
+    <t>Semana 5 (01 Oct - 05 Oct)</t>
+  </si>
+  <si>
+    <t>Semana 4 (01 oct - 05 oct)</t>
+  </si>
+  <si>
+    <t>coaching planeacion inception Celula Datos</t>
+  </si>
+  <si>
+    <t>reunion revision plan de comunicación de proyectos Vau</t>
+  </si>
+  <si>
+    <t>informe de planeacion ejecutada semana 3</t>
+  </si>
+  <si>
+    <t>consolidacion de datos recogidos en el inmersion de los 15 equipos</t>
+  </si>
+  <si>
+    <t>inmersion equipo SGID</t>
+  </si>
+  <si>
+    <t>inmersion equipo Infraestructura</t>
+  </si>
+  <si>
+    <t>coaching daily, tablero kanban equipo antifradude</t>
+  </si>
+  <si>
+    <t>Diseño y contruccion encuesta Equipo</t>
+  </si>
+  <si>
+    <t>Diseño y construccion de encuesta PO</t>
+  </si>
+  <si>
+    <t>Diseño de tarjetas valores Experian Way - Valores Agiles</t>
+  </si>
+  <si>
+    <t>reunion de revsion del taller de Agilidad Experian Evoluciona</t>
+  </si>
+  <si>
+    <t>informe general de hallazgos</t>
+  </si>
+  <si>
+    <t>reporte nueclo de transformacion</t>
+  </si>
+  <si>
+    <t>encuentas PO</t>
+  </si>
+  <si>
+    <t>encuestas Equipo</t>
+  </si>
+  <si>
+    <t>Creacion de Radares x Equipo</t>
+  </si>
+  <si>
+    <t>Inmersion Equipo App</t>
+  </si>
+  <si>
+    <t>acompañamiento inception Celula Datos (Mercacion Tec, Garantias Moviliarias)</t>
+  </si>
+  <si>
+    <t>informe general Inmersion</t>
+  </si>
+  <si>
+    <t>Diseño Radar Adopcion Safe</t>
+  </si>
+  <si>
+    <t>Evaluacion de Adopcion Safe</t>
+  </si>
+  <si>
+    <t>revison reporte de inmersion, Radares, Informe, hallazgos</t>
+  </si>
+  <si>
+    <t>review Inmersion Experia</t>
+  </si>
+  <si>
+    <t>marcela vergara</t>
+  </si>
+  <si>
+    <t>preparacion de actividades para taller de lideres Experian</t>
+  </si>
+  <si>
+    <t>Rene Ome/ Marcela Vergara</t>
+  </si>
+  <si>
+    <t>Semana 5 (08 oct - 12 oct)</t>
+  </si>
+  <si>
+    <t>Reunion de sincronizacion Celula Agile</t>
+  </si>
+  <si>
+    <t>Preparacion taller legos Comprension Agile</t>
+  </si>
+  <si>
+    <t>Ajustes presentacion Taller de Agilidad</t>
+  </si>
+  <si>
+    <t>preparacion de actividades taller Agile lideres</t>
+  </si>
+  <si>
+    <t>Facilitacion Inception No Bancalizados</t>
+  </si>
+  <si>
+    <t>Revision con equipo experian avances del taller de lideres</t>
+  </si>
+  <si>
+    <t>preparacion Taller de lideres Experian</t>
+  </si>
+  <si>
+    <t>Sesion 1 de planing proyecto coach agile</t>
+  </si>
+  <si>
+    <t>preparacion Actividades planing proyecto coach agile</t>
+  </si>
+  <si>
+    <t>Semana 6 15 oct - 19 oct)</t>
+  </si>
+  <si>
+    <t>ensayo presentacion taller de lideres</t>
+  </si>
+  <si>
+    <t>preparacion ensayo taller taller lideres</t>
+  </si>
+  <si>
+    <t>ensayo taller lego enfoque agile y tradicional</t>
+  </si>
+  <si>
+    <t>segunda sesion hallazgos inmersion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reunion de Coordinación actividades taller Líderes </t>
+  </si>
+  <si>
+    <t>ajustes presentacion - taller de lideres Experian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ajustes finales taller lideres </t>
+  </si>
+  <si>
+    <t>preparacion de auditorio para taller de lideres 19 de Octubre</t>
+  </si>
+  <si>
+    <t>Nuestra Cultura Evoluciona - Primer Taller de Lideres</t>
+  </si>
+  <si>
+    <t>Proyecto Transformacion</t>
+  </si>
+  <si>
+    <t>Planeacion semanal</t>
+  </si>
+  <si>
+    <t>Reporte de actividades planeadas</t>
+  </si>
+  <si>
+    <t>Tercera Sesion Hallazgos Transformacion Agil</t>
+  </si>
+  <si>
+    <t>acompañamiento demos mi data al dia</t>
+  </si>
+  <si>
+    <t>Retrospectiva Taller de lideres</t>
+  </si>
+  <si>
+    <t>evaluacion Proyecto Billing - marcos Agiles</t>
+  </si>
+  <si>
+    <t>2 sesion Nuestra Cultura evoluciona</t>
+  </si>
+  <si>
+    <t>planeacion PI - celula Decisor- proyecto Ingreso real</t>
+  </si>
+  <si>
+    <t>preparacion sesion 2 Taller lideres</t>
+  </si>
+  <si>
+    <t>Informe de planing 2 Iteracion Proyecto Coach Agile</t>
+  </si>
+  <si>
+    <t>Preparacion informe planeacion Segunda Iteracion</t>
+  </si>
+  <si>
+    <t>preparacion actividades taller lideres Experian</t>
+  </si>
+  <si>
+    <t>Agendar Plan capacitacion TI</t>
+  </si>
+  <si>
+    <t>reunion de planeacion acompañamiento Mi Data al Día</t>
+  </si>
+  <si>
+    <t>reunion de planeacion acompañamiento Célula Decisor</t>
+  </si>
+  <si>
+    <t>reunion de planeacion acompañamiento Seguros</t>
+  </si>
+  <si>
+    <t>reunion de planeacion acompañamiento No bancarizado</t>
+  </si>
+  <si>
+    <t>Charla Cultura Agile</t>
+  </si>
+  <si>
+    <t>Refinamiento Backlog sprint 2</t>
+  </si>
+  <si>
+    <t>Creacion Kamban Proyecto Transformacion Agile</t>
+  </si>
+  <si>
+    <t>creacion de radar Visual equipos Priorizados</t>
+  </si>
+  <si>
+    <t>Experian</t>
+  </si>
+  <si>
+    <t>Proceso de ingreso</t>
+  </si>
+  <si>
+    <t>Revison de Documentacion de procesos PMO</t>
+  </si>
+  <si>
+    <t>Devops</t>
+  </si>
+  <si>
+    <t>Cavipetrol</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Diplomado UTP</t>
+  </si>
+  <si>
+    <t>Certificacion Safe</t>
+  </si>
+  <si>
+    <t>Cierre proyecto colpensiones</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,8 +788,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -397,8 +843,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -421,11 +885,142 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -437,7 +1032,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -446,7 +1040,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -461,18 +1054,357 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="14">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -489,6 +1421,2084 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Informes.xlsx]Hoja4!TablaDinámica20</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja4!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja4!$A$4:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Admistrativo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Analisis de Informacion</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Formacion</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Gestion Cambio</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Inmersion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja4!$B$4:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7B15-4FE5-B21B-D51CFA319EF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="865191119"/>
+        <c:axId val="864636831"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="865191119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="864636831"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="864636831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="865191119"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>376236</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>90486</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D92360C-8818-4C81-B813-C035175D6F32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ome, Erwin" refreshedDate="43371.369307870373" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="26" xr:uid="{564F3B08-9F44-45A8-86B8-A1AB9C80EB81}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B8:F34" sheet="Ejecutado"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="Coach" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Fecha" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2018-09-10T00:00:00" maxDate="2018-09-15T00:00:00"/>
+    </cacheField>
+    <cacheField name="Actividad" numFmtId="0">
+      <sharedItems count="26">
+        <s v="Capacitaciones Internas"/>
+        <s v="Planeacion de Actividades inmersion Equipos"/>
+        <s v="Reunion Inmersion Equipo Decisor"/>
+        <s v="Reunion Inmersion Equipo Celula de Datos"/>
+        <s v="Reunion Inmersion Equipo Mi data al dia"/>
+        <s v="Agendamiento de Reuniones de Inmersion equipos Seguros, Antifraude, App"/>
+        <s v="Preparacion Reunion kick off a la PMO"/>
+        <s v="Inmersion Equipo Validador Ingresos"/>
+        <s v="Analisis de Artefactos de Inmersion de los Equipos"/>
+        <s v="Inmersion Equipo Seguro"/>
+        <s v="Inmersion Equipo Antifraude"/>
+        <s v="Entrevista PM Ebyington"/>
+        <s v="Reunion kick off a la PMO"/>
+        <s v="Coach Creacion de Kanban Equipo Seguros"/>
+        <s v="Reunion comunicación (divulgacion Proyecto Agiles UVT)"/>
+        <s v="Acompañamiento revision de Inception Facturacion Electronica"/>
+        <s v="Elaboracion de Plan semanal 17-21"/>
+        <s v="Analisis de Artefactos de Inmersion de los Equipos Seguro, Antifraude"/>
+        <s v="analisis Inicial del los equipos"/>
+        <s v="Preparacion de entrevistas PM contextalizacion de sus proyectos"/>
+        <s v="Inmersion Celula Antifraude"/>
+        <s v="Entrevista PM Mi Data Al Dia"/>
+        <s v="Analisis de Datos"/>
+        <s v="Analisis Información inicial de equipos"/>
+        <s v="Inception Facturacion Electrónica"/>
+        <s v="Defincion de Lineamiento del proyecto"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Tiempo" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1" maxValue="6"/>
+    </cacheField>
+    <cacheField name="Objetivos" numFmtId="0">
+      <sharedItems count="6">
+        <s v="Admistrativo"/>
+        <s v="Inmersion"/>
+        <s v="Analisis de Informacion"/>
+        <s v="Formacion"/>
+        <s v="Gestion Cambio"/>
+        <s v="Coaching"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ome, Erwin" refreshedDate="43371.374114467595" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="26" xr:uid="{9E38AF08-A079-4E65-88C5-09B2118E975D}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B8:F34" sheet="Ejecutado"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="Coach" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Fecha" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2018-09-10T00:00:00" maxDate="2018-09-15T00:00:00"/>
+    </cacheField>
+    <cacheField name="Actividad" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Tiempo" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1" maxValue="6"/>
+    </cacheField>
+    <cacheField name="Objetivos" numFmtId="0">
+      <sharedItems count="6">
+        <s v="Admistrativo"/>
+        <s v="Inmersion"/>
+        <s v="Analisis de Informacion"/>
+        <s v="Formacion"/>
+        <s v="Gestion Cambio"/>
+        <s v="Coaching"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ome, Erwin" refreshedDate="43371.374483680556" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="26" xr:uid="{A58A634E-9027-4A76-860A-1ACD6309D26F}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B8:F34" sheet="Ejecutado"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="Coach" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Rene Ome"/>
+        <s v="Marcela Vergara"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Fecha" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2018-09-10T00:00:00" maxDate="2018-09-15T00:00:00"/>
+    </cacheField>
+    <cacheField name="Actividad" numFmtId="0">
+      <sharedItems count="26">
+        <s v="Capacitaciones Internas"/>
+        <s v="Planeacion de Actividades inmersion Equipos"/>
+        <s v="Reunion Inmersion Equipo Decisor"/>
+        <s v="Reunion Inmersion Equipo Celula de Datos"/>
+        <s v="Reunion Inmersion Equipo Mi data al dia"/>
+        <s v="Agendamiento de Reuniones de Inmersion equipos Seguros, Antifraude, App"/>
+        <s v="Preparacion Reunion kick off a la PMO"/>
+        <s v="Inmersion Equipo Validador Ingresos"/>
+        <s v="Analisis de Artefactos de Inmersion de los Equipos"/>
+        <s v="Inmersion Equipo Seguro"/>
+        <s v="Inmersion Equipo Antifraude"/>
+        <s v="Entrevista PM Ebyington"/>
+        <s v="Reunion kick off a la PMO"/>
+        <s v="Coach Creacion de Kanban Equipo Seguros"/>
+        <s v="Reunion comunicación (divulgacion Proyecto Agiles UVT)"/>
+        <s v="Acompañamiento revision de Inception Facturacion Electronica"/>
+        <s v="Elaboracion de Plan semanal 17-21"/>
+        <s v="Analisis de Artefactos de Inmersion de los Equipos Seguro, Antifraude"/>
+        <s v="analisis Inicial del los equipos"/>
+        <s v="Preparacion de entrevistas PM contextalizacion de sus proyectos"/>
+        <s v="Inmersion Celula Antifraude"/>
+        <s v="Entrevista PM Mi Data Al Dia"/>
+        <s v="Analisis de Datos"/>
+        <s v="Analisis Información inicial de equipos"/>
+        <s v="Inception Facturacion Electrónica"/>
+        <s v="Defincion de Lineamiento del proyecto"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Tiempo" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1" maxValue="6"/>
+    </cacheField>
+    <cacheField name="Objetivos" numFmtId="0">
+      <sharedItems count="6">
+        <s v="Admistrativo"/>
+        <s v="Inmersion"/>
+        <s v="Analisis de Informacion"/>
+        <s v="Formacion"/>
+        <s v="Gestion Cambio"/>
+        <s v="Coaching"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="26">
+  <r>
+    <s v="Rene Ome"/>
+    <d v="2018-09-10T00:00:00"/>
+    <x v="0"/>
+    <n v="6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Rene Ome"/>
+    <d v="2018-09-10T00:00:00"/>
+    <x v="1"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Rene Ome"/>
+    <d v="2018-09-10T00:00:00"/>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Rene Ome"/>
+    <d v="2018-09-11T00:00:00"/>
+    <x v="3"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Rene Ome"/>
+    <d v="2018-09-11T00:00:00"/>
+    <x v="4"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Rene Ome"/>
+    <d v="2018-09-11T00:00:00"/>
+    <x v="5"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Rene Ome"/>
+    <d v="2018-09-11T00:00:00"/>
+    <x v="6"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Rene Ome"/>
+    <d v="2018-09-11T00:00:00"/>
+    <x v="7"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Rene Ome"/>
+    <d v="2018-09-11T00:00:00"/>
+    <x v="8"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Rene Ome"/>
+    <d v="2018-09-12T00:00:00"/>
+    <x v="9"/>
+    <n v="1.5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Rene Ome"/>
+    <d v="2018-09-12T00:00:00"/>
+    <x v="10"/>
+    <n v="1.5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Rene Ome"/>
+    <d v="2018-09-12T00:00:00"/>
+    <x v="11"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Rene Ome"/>
+    <d v="2018-09-12T00:00:00"/>
+    <x v="12"/>
+    <n v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Rene Ome"/>
+    <d v="2018-09-12T00:00:00"/>
+    <x v="13"/>
+    <n v="2"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Rene Ome"/>
+    <d v="2018-09-13T00:00:00"/>
+    <x v="14"/>
+    <n v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Rene Ome"/>
+    <d v="2018-09-13T00:00:00"/>
+    <x v="15"/>
+    <n v="2"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Rene Ome"/>
+    <d v="2018-09-13T00:00:00"/>
+    <x v="16"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Rene Ome"/>
+    <d v="2018-09-13T00:00:00"/>
+    <x v="17"/>
+    <n v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Rene Ome"/>
+    <d v="2018-09-13T00:00:00"/>
+    <x v="18"/>
+    <n v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Rene Ome"/>
+    <d v="2018-09-13T00:00:00"/>
+    <x v="19"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Rene Ome"/>
+    <d v="2018-09-14T00:00:00"/>
+    <x v="20"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Rene Ome"/>
+    <d v="2018-09-14T00:00:00"/>
+    <x v="21"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Rene Ome"/>
+    <d v="2018-09-14T00:00:00"/>
+    <x v="22"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Marcela Vergara"/>
+    <d v="2018-09-13T00:00:00"/>
+    <x v="23"/>
+    <n v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Marcela Vergara"/>
+    <d v="2018-09-13T00:00:00"/>
+    <x v="24"/>
+    <n v="2"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Marcela Vergara"/>
+    <d v="2018-09-13T00:00:00"/>
+    <x v="25"/>
+    <n v="3"/>
+    <x v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="26">
+  <r>
+    <s v="Rene Ome"/>
+    <d v="2018-09-10T00:00:00"/>
+    <s v="Capacitaciones Internas"/>
+    <n v="6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Rene Ome"/>
+    <d v="2018-09-10T00:00:00"/>
+    <s v="Planeacion de Actividades inmersion Equipos"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Rene Ome"/>
+    <d v="2018-09-10T00:00:00"/>
+    <s v="Reunion Inmersion Equipo Decisor"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Rene Ome"/>
+    <d v="2018-09-11T00:00:00"/>
+    <s v="Reunion Inmersion Equipo Celula de Datos"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Rene Ome"/>
+    <d v="2018-09-11T00:00:00"/>
+    <s v="Reunion Inmersion Equipo Mi data al dia"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Rene Ome"/>
+    <d v="2018-09-11T00:00:00"/>
+    <s v="Agendamiento de Reuniones de Inmersion equipos Seguros, Antifraude, App"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Rene Ome"/>
+    <d v="2018-09-11T00:00:00"/>
+    <s v="Preparacion Reunion kick off a la PMO"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Rene Ome"/>
+    <d v="2018-09-11T00:00:00"/>
+    <s v="Inmersion Equipo Validador Ingresos"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Rene Ome"/>
+    <d v="2018-09-11T00:00:00"/>
+    <s v="Analisis de Artefactos de Inmersion de los Equipos"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Rene Ome"/>
+    <d v="2018-09-12T00:00:00"/>
+    <s v="Inmersion Equipo Seguro"/>
+    <n v="1.5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Rene Ome"/>
+    <d v="2018-09-12T00:00:00"/>
+    <s v="Inmersion Equipo Antifraude"/>
+    <n v="1.5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Rene Ome"/>
+    <d v="2018-09-12T00:00:00"/>
+    <s v="Entrevista PM Ebyington"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Rene Ome"/>
+    <d v="2018-09-12T00:00:00"/>
+    <s v="Reunion kick off a la PMO"/>
+    <n v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Rene Ome"/>
+    <d v="2018-09-12T00:00:00"/>
+    <s v="Coach Creacion de Kanban Equipo Seguros"/>
+    <n v="2"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Rene Ome"/>
+    <d v="2018-09-13T00:00:00"/>
+    <s v="Reunion comunicación (divulgacion Proyecto Agiles UVT)"/>
+    <n v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Rene Ome"/>
+    <d v="2018-09-13T00:00:00"/>
+    <s v="Acompañamiento revision de Inception Facturacion Electronica"/>
+    <n v="2"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Rene Ome"/>
+    <d v="2018-09-13T00:00:00"/>
+    <s v="Elaboracion de Plan semanal 17-21"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Rene Ome"/>
+    <d v="2018-09-13T00:00:00"/>
+    <s v="Analisis de Artefactos de Inmersion de los Equipos Seguro, Antifraude"/>
+    <n v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Rene Ome"/>
+    <d v="2018-09-13T00:00:00"/>
+    <s v="analisis Inicial del los equipos"/>
+    <n v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Rene Ome"/>
+    <d v="2018-09-13T00:00:00"/>
+    <s v="Preparacion de entrevistas PM contextalizacion de sus proyectos"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Rene Ome"/>
+    <d v="2018-09-14T00:00:00"/>
+    <s v="Inmersion Celula Antifraude"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Rene Ome"/>
+    <d v="2018-09-14T00:00:00"/>
+    <s v="Entrevista PM Mi Data Al Dia"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Rene Ome"/>
+    <d v="2018-09-14T00:00:00"/>
+    <s v="Analisis de Datos"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Marcela Vergara"/>
+    <d v="2018-09-13T00:00:00"/>
+    <s v="Analisis Información inicial de equipos"/>
+    <n v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Marcela Vergara"/>
+    <d v="2018-09-13T00:00:00"/>
+    <s v="Inception Facturacion Electrónica"/>
+    <n v="2"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Marcela Vergara"/>
+    <d v="2018-09-13T00:00:00"/>
+    <s v="Defincion de Lineamiento del proyecto"/>
+    <n v="3"/>
+    <x v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="26">
+  <r>
+    <x v="0"/>
+    <d v="2018-09-10T00:00:00"/>
+    <x v="0"/>
+    <n v="6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2018-09-10T00:00:00"/>
+    <x v="1"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2018-09-10T00:00:00"/>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2018-09-11T00:00:00"/>
+    <x v="3"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2018-09-11T00:00:00"/>
+    <x v="4"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2018-09-11T00:00:00"/>
+    <x v="5"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2018-09-11T00:00:00"/>
+    <x v="6"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2018-09-11T00:00:00"/>
+    <x v="7"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2018-09-11T00:00:00"/>
+    <x v="8"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2018-09-12T00:00:00"/>
+    <x v="9"/>
+    <n v="1.5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2018-09-12T00:00:00"/>
+    <x v="10"/>
+    <n v="1.5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2018-09-12T00:00:00"/>
+    <x v="11"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2018-09-12T00:00:00"/>
+    <x v="12"/>
+    <n v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2018-09-12T00:00:00"/>
+    <x v="13"/>
+    <n v="2"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2018-09-13T00:00:00"/>
+    <x v="14"/>
+    <n v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2018-09-13T00:00:00"/>
+    <x v="15"/>
+    <n v="2"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2018-09-13T00:00:00"/>
+    <x v="16"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2018-09-13T00:00:00"/>
+    <x v="17"/>
+    <n v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2018-09-13T00:00:00"/>
+    <x v="18"/>
+    <n v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2018-09-13T00:00:00"/>
+    <x v="19"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2018-09-14T00:00:00"/>
+    <x v="20"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2018-09-14T00:00:00"/>
+    <x v="21"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2018-09-14T00:00:00"/>
+    <x v="22"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2018-09-13T00:00:00"/>
+    <x v="23"/>
+    <n v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2018-09-13T00:00:00"/>
+    <x v="24"/>
+    <n v="2"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2018-09-13T00:00:00"/>
+    <x v="25"/>
+    <n v="3"/>
+    <x v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5405F74C-4CF7-47BA-952C-CAD22B5FA6C7}" name="TablaDinámica20" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="Objetivos">
+  <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="27">
+        <item x="15"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="17"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="18"/>
+        <item x="0"/>
+        <item x="13"/>
+        <item x="25"/>
+        <item x="16"/>
+        <item x="11"/>
+        <item x="21"/>
+        <item x="24"/>
+        <item x="20"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="19"/>
+        <item x="6"/>
+        <item x="14"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item sd="0" x="0"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="1"/>
+        <item t="default" sd="0"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="4"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Suma de Tiempo" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EDED834B-776B-4698-A8C8-5F3ABCC782E0}" name="TablaDinámica22" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Cuenta de Actividad" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Suma de Tiempo" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{211E3A86-73D0-4433-9F57-D4CC7BFBEC31}" name="TablaDinámica24" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:H31" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="27">
+        <item x="15"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="17"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="18"/>
+        <item x="0"/>
+        <item x="13"/>
+        <item x="25"/>
+        <item x="16"/>
+        <item x="11"/>
+        <item x="21"/>
+        <item x="24"/>
+        <item x="20"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="19"/>
+        <item x="6"/>
+        <item x="14"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="27">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Suma de Tiempo" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DE4DA5A6-F304-4EB6-9B59-EFEAAA70B03F}" name="Tabla5" displayName="Tabla5" ref="B8:F34" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11">
+  <autoFilter ref="B8:F34" xr:uid="{A22BA87C-6159-44DE-841D-219665E12798}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{4E0857E9-04F9-41FE-B48C-A523ECEBF817}" name="Coach" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{E9F08946-A6D3-4BC4-8996-D326CD9B2C4E}" name="Fecha" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{61C73E13-B97E-4D46-91CE-040F896B98F7}" name="Actividad" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{E3662C56-A11C-4774-A4D5-3B55EDE93449}" name="Tiempo" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{D22F9E83-9498-4E54-8108-E49F9824B67E}" name="Objetivos" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{792B2493-DCB4-4324-A084-4C91F708B6F3}" name="Tabla3" displayName="Tabla3" ref="E2:F9" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+  <autoFilter ref="E2:F9" xr:uid="{176D6AF5-6A8F-422E-B05C-0DD48D976B27}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{EF3CF903-A4B5-4D68-BE03-2E98450427B4}" name="Objetivos " dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{1AD8D33D-59CD-4A57-906B-C712D016754A}" name="Horas" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -788,91 +3798,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:T5"/>
+  <dimension ref="B2:Y16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="20" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>43348</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <f>C2+1</f>
         <v>43349</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <f>D2+1</f>
         <v>43350</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>43353</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <f t="shared" ref="G2:T2" si="0">F2+1</f>
         <v>43354</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="7">
         <f t="shared" si="0"/>
         <v>43355</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
         <f t="shared" si="0"/>
         <v>43356</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="8">
         <f t="shared" si="0"/>
         <v>43357</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="7">
         <v>43360</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="7">
         <f t="shared" si="0"/>
         <v>43361</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="7">
         <f t="shared" si="0"/>
         <v>43362</v>
       </c>
-      <c r="N2" s="8">
+      <c r="N2" s="7">
         <f t="shared" si="0"/>
         <v>43363</v>
       </c>
-      <c r="O2" s="9">
+      <c r="O2" s="8">
         <f t="shared" si="0"/>
         <v>43364</v>
       </c>
-      <c r="P2" s="8">
+      <c r="P2" s="7">
         <v>43367</v>
       </c>
-      <c r="Q2" s="8">
+      <c r="Q2" s="7">
         <f t="shared" si="0"/>
         <v>43368</v>
       </c>
-      <c r="R2" s="8">
+      <c r="R2" s="7">
         <f t="shared" si="0"/>
         <v>43369</v>
       </c>
-      <c r="S2" s="8">
+      <c r="S2" s="7">
         <f t="shared" si="0"/>
         <v>43370</v>
       </c>
-      <c r="T2" s="9">
+      <c r="T2" s="8">
         <f t="shared" si="0"/>
         <v>43371</v>
       </c>
-    </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U2" s="7">
+        <v>43374</v>
+      </c>
+      <c r="V2" s="7">
+        <f t="shared" ref="V2" si="1">U2+1</f>
+        <v>43375</v>
+      </c>
+      <c r="W2" s="7">
+        <f t="shared" ref="W2" si="2">V2+1</f>
+        <v>43376</v>
+      </c>
+      <c r="X2" s="7">
+        <f t="shared" ref="X2:Y2" si="3">W2+1</f>
+        <v>43377</v>
+      </c>
+      <c r="Y2" s="8">
+        <f t="shared" si="3"/>
+        <v>43378</v>
+      </c>
+    </row>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -918,12 +3947,35 @@
       <c r="P3" s="1">
         <v>5</v>
       </c>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-    </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Q3" s="1">
+        <v>5</v>
+      </c>
+      <c r="R3" s="1">
+        <v>5</v>
+      </c>
+      <c r="S3" s="1">
+        <v>5</v>
+      </c>
+      <c r="T3" s="1">
+        <v>9</v>
+      </c>
+      <c r="U3" s="62">
+        <v>9</v>
+      </c>
+      <c r="V3" s="62">
+        <v>9</v>
+      </c>
+      <c r="W3" s="62">
+        <v>9</v>
+      </c>
+      <c r="X3" s="62">
+        <v>9</v>
+      </c>
+      <c r="Y3" s="62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -969,12 +4021,20 @@
       <c r="P4" s="1">
         <v>0</v>
       </c>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-    </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>4</v>
+      </c>
+      <c r="T4" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1025,54 +4085,430 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="7">
+        <v>43346</v>
+      </c>
+      <c r="D9" s="7">
+        <f>C9+1</f>
+        <v>43347</v>
+      </c>
+      <c r="E9" s="7">
+        <f>D9+1</f>
+        <v>43348</v>
+      </c>
+      <c r="F9" s="7">
+        <f>E9+1</f>
+        <v>43349</v>
+      </c>
+      <c r="G9" s="7">
+        <f>F9+1</f>
+        <v>43350</v>
+      </c>
+      <c r="H9" s="7">
+        <v>43353</v>
+      </c>
+      <c r="I9" s="7">
+        <f t="shared" ref="I9" si="4">H9+1</f>
+        <v>43354</v>
+      </c>
+      <c r="J9" s="7">
+        <f t="shared" ref="J9" si="5">I9+1</f>
+        <v>43355</v>
+      </c>
+      <c r="K9" s="7">
+        <f t="shared" ref="K9" si="6">J9+1</f>
+        <v>43356</v>
+      </c>
+      <c r="L9" s="8">
+        <f t="shared" ref="L9" si="7">K9+1</f>
+        <v>43357</v>
+      </c>
+      <c r="M9" s="7">
+        <v>43360</v>
+      </c>
+      <c r="N9" s="7">
+        <f t="shared" ref="N9" si="8">M9+1</f>
+        <v>43361</v>
+      </c>
+      <c r="O9" s="7">
+        <f t="shared" ref="O9" si="9">N9+1</f>
+        <v>43362</v>
+      </c>
+      <c r="P9" s="7">
+        <f t="shared" ref="P9" si="10">O9+1</f>
+        <v>43363</v>
+      </c>
+      <c r="Q9" s="8">
+        <f t="shared" ref="Q9" si="11">P9+1</f>
+        <v>43364</v>
+      </c>
+      <c r="R9" s="7">
+        <v>43367</v>
+      </c>
+      <c r="S9" s="7">
+        <f t="shared" ref="S9" si="12">R9+1</f>
+        <v>43368</v>
+      </c>
+      <c r="T9" s="7">
+        <f t="shared" ref="T9" si="13">S9+1</f>
+        <v>43369</v>
+      </c>
+      <c r="U9" s="7">
+        <f t="shared" ref="U9" si="14">T9+1</f>
+        <v>43370</v>
+      </c>
+      <c r="V9" s="8">
+        <f t="shared" ref="V9" si="15">U9+1</f>
+        <v>43371</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1">
+        <v>4</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4</v>
+      </c>
+      <c r="H10" s="1">
+        <v>9</v>
+      </c>
+      <c r="I10" s="1">
+        <v>9</v>
+      </c>
+      <c r="J10" s="1">
+        <v>9</v>
+      </c>
+      <c r="K10" s="1">
+        <v>9</v>
+      </c>
+      <c r="L10" s="1">
+        <v>4</v>
+      </c>
+      <c r="M10" s="1">
+        <v>9</v>
+      </c>
+      <c r="N10" s="1">
+        <v>9</v>
+      </c>
+      <c r="O10" s="1">
+        <v>9</v>
+      </c>
+      <c r="P10" s="1">
+        <v>9</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>9</v>
+      </c>
+      <c r="R10" s="1">
+        <v>5</v>
+      </c>
+      <c r="S10" s="1">
+        <v>5</v>
+      </c>
+      <c r="T10" s="1">
+        <v>5</v>
+      </c>
+      <c r="U10" s="1">
+        <v>5</v>
+      </c>
+      <c r="V10" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C11" s="1">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1">
+        <v>5</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+    </row>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1">
+        <v>4</v>
+      </c>
+      <c r="S15" s="1">
+        <v>4</v>
+      </c>
+      <c r="T15" s="1">
+        <v>4</v>
+      </c>
+      <c r="U15" s="1">
+        <v>4</v>
+      </c>
+      <c r="V15" s="1"/>
+    </row>
+    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B16" s="50" t="s">
+        <v>236</v>
+      </c>
+      <c r="C16" s="1">
+        <f>SUM(C10:C15)</f>
+        <v>9</v>
+      </c>
+      <c r="D16" s="1">
+        <f>SUM(D10:D15)</f>
+        <v>2</v>
+      </c>
+      <c r="E16" s="1">
+        <f>SUM(E10:E15)</f>
+        <v>4</v>
+      </c>
+      <c r="F16" s="1">
+        <f>SUM(F10:F15)</f>
+        <v>6</v>
+      </c>
+      <c r="G16" s="1">
+        <f>SUM(G10:G15)</f>
+        <v>4</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" ref="H16:V16" si="16">SUM(H10:H15)</f>
+        <v>9</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="P16" s="1">
+        <f t="shared" si="16"/>
+        <v>11</v>
+      </c>
+      <c r="Q16" s="1">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="R16" s="1">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="S16" s="1">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="T16" s="1">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="U16" s="1">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="V16" s="1">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="C16 M16 R16 H16" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:I22"/>
+  <dimension ref="B2:I74"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F74" sqref="B73:F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
       <c r="I2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>9</v>
       </c>
       <c r="I3" t="s">
@@ -1080,19 +4516,19 @@
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12">
+      <c r="B4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11">
         <v>43367</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>4</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>61</v>
       </c>
       <c r="I4" t="s">
@@ -1100,19 +4536,19 @@
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="12">
+      <c r="B5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11">
         <v>43367</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="11">
-        <v>1</v>
-      </c>
-      <c r="F5" s="11" t="s">
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>67</v>
       </c>
       <c r="I5" t="s">
@@ -1120,19 +4556,19 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="12">
+      <c r="B6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="11">
         <v>43367</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="11">
-        <v>1</v>
-      </c>
-      <c r="F6" s="11" t="s">
+      <c r="E6" s="10">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>61</v>
       </c>
       <c r="I6" t="s">
@@ -1140,19 +4576,19 @@
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="12">
+      <c r="B7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="11">
         <v>43368</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="11">
-        <v>2</v>
-      </c>
-      <c r="F7" s="11" t="s">
+      <c r="E7" s="10">
+        <v>2</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>61</v>
       </c>
       <c r="I7" t="s">
@@ -1160,261 +4596,869 @@
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="12">
+      <c r="B8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="11">
         <v>43368</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="11">
-        <v>2</v>
-      </c>
-      <c r="F8" s="11" t="s">
+      <c r="E8" s="10">
+        <v>2</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="12">
+      <c r="B9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="11">
         <v>43368</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="11">
-        <v>1</v>
-      </c>
-      <c r="F9" s="11" t="s">
+      <c r="E9" s="10">
+        <v>1</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="12">
+      <c r="B10" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="11">
         <v>43369</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="11">
-        <v>2</v>
-      </c>
-      <c r="F10" s="11" t="s">
+      <c r="E10" s="10">
+        <v>2</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="12">
+      <c r="B11" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="11">
         <v>43369</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="11">
-        <v>2</v>
-      </c>
-      <c r="F11" s="11" t="s">
+      <c r="E11" s="10">
+        <v>2</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="12">
+      <c r="B12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="11">
         <v>43369</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="11">
-        <v>1</v>
-      </c>
-      <c r="F12" s="11" t="s">
+      <c r="E12" s="10">
+        <v>1</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="12">
+      <c r="B13" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="11">
         <v>43370</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="11">
-        <v>1</v>
-      </c>
-      <c r="F13" s="11"/>
+      <c r="E13" s="10">
+        <v>1</v>
+      </c>
+      <c r="F13" s="10"/>
     </row>
     <row r="14" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="12">
+      <c r="B14" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="11">
         <v>43370</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="11">
-        <v>1</v>
-      </c>
-      <c r="F14" s="11" t="s">
+      <c r="E14" s="10">
+        <v>1</v>
+      </c>
+      <c r="F14" s="10" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="12">
+      <c r="B15" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="11">
         <v>43370</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E15" s="11">
-        <v>2</v>
-      </c>
-      <c r="F15" s="11" t="s">
+      <c r="E15" s="10">
+        <v>2</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="12">
+      <c r="B16" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="11">
         <v>43371</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="11">
-        <v>1</v>
-      </c>
-      <c r="F16" s="11" t="s">
+      <c r="E16" s="10">
+        <v>1</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="12">
+      <c r="B17" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="11">
         <v>43371</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="11">
-        <v>2</v>
-      </c>
-      <c r="F17" s="11" t="s">
+      <c r="E17" s="10">
+        <v>2</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="12">
+      <c r="B18" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="11">
         <v>43371</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="10">
         <v>5</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="12">
+      <c r="B19" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="11">
         <v>43371</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="11">
-        <v>1</v>
-      </c>
-      <c r="F19" s="11" t="s">
+      <c r="E19" s="10">
+        <v>1</v>
+      </c>
+      <c r="F19" s="10" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="17">
+      <c r="B20" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="15">
         <v>43370</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="E20" s="16">
-        <v>2</v>
-      </c>
-      <c r="F20" s="16" t="s">
+      <c r="E20" s="14">
+        <v>2</v>
+      </c>
+      <c r="F20" s="14" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="17">
+      <c r="B21" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="15">
         <v>43370</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E21" s="16">
-        <v>2</v>
-      </c>
-      <c r="F21" s="16" t="s">
+      <c r="E21" s="14">
+        <v>2</v>
+      </c>
+      <c r="F21" s="14" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="17">
+      <c r="B22" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="15">
         <v>43370</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="14">
         <v>5</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="14" t="s">
         <v>61</v>
       </c>
     </row>
+    <row r="26" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2">
+        <v>43374</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
+        <v>43374</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2">
+        <v>43374</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30" s="1">
+        <v>4</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2">
+        <v>43374</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E31" s="1">
+        <v>3</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2">
+        <v>43375</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E32" s="1">
+        <v>4</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2">
+        <v>43375</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2">
+        <v>43375</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2">
+        <v>43375</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2">
+        <v>43375</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2">
+        <v>43376</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="2">
+        <v>43376</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="2">
+        <v>43376</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E39" s="1">
+        <v>4</v>
+      </c>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2">
+        <v>43376</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E40" s="1">
+        <v>3</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2">
+        <v>43376</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E41" s="1">
+        <v>3</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2">
+        <v>43376</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2">
+        <v>43377</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2">
+        <v>43377</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E44" s="1">
+        <v>4</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2">
+        <v>43377</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E45" s="1">
+        <v>2</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2">
+        <v>43377</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2">
+        <v>43377</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B48" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="2">
+        <v>43378</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E48" s="1">
+        <v>5</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D49" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="E49" s="50">
+        <f>SUM(E28:E48)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B53" s="55" t="s">
+        <v>161</v>
+      </c>
+      <c r="C53" s="55"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="55"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="I63" s="65"/>
+    </row>
+    <row r="64" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="I64" s="65"/>
+    </row>
+    <row r="65" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="I65" s="65"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="I66" s="65"/>
+    </row>
+    <row r="67" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+    </row>
+    <row r="68" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+    </row>
+    <row r="70" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B53:F53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1422,198 +5466,888 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:H72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{717EC465-B751-407B-9EB5-6C56E3C1F1D0}">
+  <dimension ref="A3:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.42578125" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="23">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FB4650F-C08E-40D3-BE01-093958EA4376}">
+  <dimension ref="A3:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="23">
+        <v>2</v>
+      </c>
+      <c r="C4" s="23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="23">
+        <v>3</v>
+      </c>
+      <c r="C5" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="23">
+        <v>2</v>
+      </c>
+      <c r="C6" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="23">
+        <v>1</v>
+      </c>
+      <c r="C7" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="23">
+        <v>1</v>
+      </c>
+      <c r="C8" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="23">
+        <v>17</v>
+      </c>
+      <c r="C9" s="23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="23">
+        <v>26</v>
+      </c>
+      <c r="C10" s="23">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D305536E-E001-4D9F-9D7A-165FB1C3829A}">
+  <dimension ref="A3:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H31" sqref="A3:H31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="70.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23">
+        <v>2</v>
+      </c>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23">
+        <v>1</v>
+      </c>
+      <c r="H6" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23">
+        <v>1</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23">
+        <v>2</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23">
+        <v>1</v>
+      </c>
+      <c r="H9" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23">
+        <v>4</v>
+      </c>
+      <c r="H10" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23">
+        <v>2</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="23">
+        <v>6</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23">
+        <v>2</v>
+      </c>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23">
+        <v>3</v>
+      </c>
+      <c r="H14" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="23">
+        <v>1</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23">
+        <v>1</v>
+      </c>
+      <c r="H16" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23">
+        <v>1</v>
+      </c>
+      <c r="H17" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23">
+        <v>2</v>
+      </c>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23">
+        <v>2</v>
+      </c>
+      <c r="H19" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="H20" s="23">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="H21" s="23">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23">
+        <v>2</v>
+      </c>
+      <c r="H22" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23">
+        <v>2</v>
+      </c>
+      <c r="H23" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23">
+        <v>1</v>
+      </c>
+      <c r="H24" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23">
+        <v>1</v>
+      </c>
+      <c r="H25" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23">
+        <v>1</v>
+      </c>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23">
+        <v>2</v>
+      </c>
+      <c r="H27" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23">
+        <v>1</v>
+      </c>
+      <c r="H28" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23">
+        <v>2</v>
+      </c>
+      <c r="H29" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23">
+        <v>3</v>
+      </c>
+      <c r="H30" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" s="23">
+        <v>7</v>
+      </c>
+      <c r="C31" s="23">
+        <v>5</v>
+      </c>
+      <c r="D31" s="23">
+        <v>4</v>
+      </c>
+      <c r="E31" s="23">
+        <v>2</v>
+      </c>
+      <c r="F31" s="23">
+        <v>1</v>
+      </c>
+      <c r="G31" s="23">
+        <v>30</v>
+      </c>
+      <c r="H31" s="23">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B1:J165"/>
+  <sheetViews>
+    <sheetView topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="D158" sqref="D158"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
     <col min="6" max="6" width="46.85546875" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="17">
+      <c r="B2" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="15">
         <v>43348</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D3" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E3" s="14">
         <v>3</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F3" s="14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="17">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="15">
         <v>43348</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="16">
-        <v>1</v>
-      </c>
-      <c r="F3" s="16" t="s">
+      <c r="E4" s="14">
+        <v>1</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D4" s="21" t="s">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D5" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="22">
-        <f>SUM(E2:E3)</f>
+      <c r="E5" s="20">
+        <f>SUM(E3:E4)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D5" s="21"/>
-    </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="25" t="s">
+      <c r="D6" s="19"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="H6" t="s">
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="61"/>
+      <c r="H7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C8" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D8" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E8" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="F8" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="H8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2">
-        <v>43353</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="1">
-        <v>6</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B9" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="2">
         <v>43353</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>14</v>
+      <c r="D9" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="E9" s="1">
-        <v>2</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>61</v>
+        <v>6</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="H9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="2">
         <v>43353</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>61</v>
       </c>
       <c r="H10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="2">
-        <v>43354</v>
+        <v>43353</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="4">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>61</v>
       </c>
       <c r="H11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="2">
         <v>43354</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" s="4">
         <v>2</v>
@@ -1621,33 +6355,39 @@
       <c r="F12" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
+      <c r="H12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="2">
         <v>43354</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>17</v>
+      <c r="D13" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="E13" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+      <c r="H13" s="14" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="2">
         <v>43354</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>18</v>
+      <c r="D14" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
@@ -1657,65 +6397,65 @@
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="2">
         <v>43354</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="2">
         <v>43354</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>43354</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="4">
-        <v>1</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2">
-        <v>43355</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="2">
         <v>43355</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18" s="4">
         <v>1.5</v>
@@ -1725,133 +6465,133 @@
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="2">
         <v>43355</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E19" s="4">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="2">
         <v>43355</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="1">
-        <v>3</v>
+        <v>23</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C21" s="2">
         <v>43355</v>
       </c>
       <c r="D21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="1">
+        <v>3</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>43355</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="1">
-        <v>2</v>
-      </c>
-      <c r="F21" s="1" t="s">
+      <c r="E22" s="1">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2">
-        <v>43356</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="2">
         <v>43356</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>29</v>
+      <c r="D23" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="E23" s="1">
-        <v>2</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C24" s="2">
         <v>43356</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>27</v>
+      <c r="D24" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="E24" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C25" s="2">
         <v>43356</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>28</v>
+      <c r="D25" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E25" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C26" s="2">
         <v>43356</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E26" s="1">
         <v>2</v>
@@ -1860,66 +6600,66 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C27" s="2">
         <v>43356</v>
       </c>
       <c r="D27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2">
+        <v>43356</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="1">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1" t="s">
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="2">
-        <v>43357</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E28" s="4">
-        <v>2</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="35" t="s">
         <v>1</v>
       </c>
       <c r="C29" s="2">
         <v>43357</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E29" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="35" t="s">
         <v>1</v>
       </c>
       <c r="C30" s="2">
         <v>43357</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E30" s="4">
         <v>1</v>
@@ -1929,695 +6669,2220 @@
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="17">
+      <c r="B31" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2">
+        <v>43357</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="4">
+        <v>1</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="6">
         <v>43356</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D32" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E32" s="4">
         <v>4</v>
       </c>
-      <c r="F31" s="16" t="s">
+      <c r="F32" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="6">
+        <v>43356</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="4">
+        <v>2</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="38">
+        <v>43356</v>
+      </c>
+      <c r="D34" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" s="40">
+        <v>3</v>
+      </c>
+      <c r="F34" s="40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="18"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" s="47">
+        <f>SUM(E9:E34)</f>
+        <v>49</v>
+      </c>
+      <c r="F35" s="18"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="18"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="58"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="44">
+        <v>43360</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="31">
+        <v>1</v>
+      </c>
+      <c r="F39" s="31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="41">
+        <v>43360</v>
+      </c>
+      <c r="D40" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" s="43">
+        <v>1</v>
+      </c>
+      <c r="F40" s="43" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="17">
-        <v>43356</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="E32" s="16">
-        <v>2</v>
-      </c>
-      <c r="F32" s="16" t="s">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="44">
+        <v>43360</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" s="31">
+        <v>2</v>
+      </c>
+      <c r="F41" s="31" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" s="17">
-        <v>43356</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="E33" s="16">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="41">
+        <v>43360</v>
+      </c>
+      <c r="D42" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" s="43">
+        <v>5</v>
+      </c>
+      <c r="F42" s="43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="44">
+        <v>43361</v>
+      </c>
+      <c r="D43" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="F43" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="41">
+        <v>43361</v>
+      </c>
+      <c r="D44" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" s="43">
+        <v>1</v>
+      </c>
+      <c r="F44" s="43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="44">
+        <v>43361</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="F45" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="41">
+        <v>43361</v>
+      </c>
+      <c r="D46" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46" s="43">
+        <v>1</v>
+      </c>
+      <c r="F46" s="45" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="44">
+        <v>43361</v>
+      </c>
+      <c r="D47" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E47" s="31">
+        <v>1</v>
+      </c>
+      <c r="F47" s="31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="41">
+        <v>43361</v>
+      </c>
+      <c r="D48" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="E48" s="43">
+        <v>1</v>
+      </c>
+      <c r="F48" s="43" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="44">
+        <v>43361</v>
+      </c>
+      <c r="D49" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="E49" s="31">
+        <v>1</v>
+      </c>
+      <c r="F49" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="41">
+        <v>43361</v>
+      </c>
+      <c r="D50" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="E50" s="43">
+        <v>2</v>
+      </c>
+      <c r="F50" s="43" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="44">
+        <v>43361</v>
+      </c>
+      <c r="D51" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E51" s="31">
+        <v>1</v>
+      </c>
+      <c r="F51" s="31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="41">
+        <v>43362</v>
+      </c>
+      <c r="D52" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E52" s="43">
+        <v>2.5</v>
+      </c>
+      <c r="F52" s="45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="44">
+        <v>43362</v>
+      </c>
+      <c r="D53" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="E53" s="31">
+        <v>4</v>
+      </c>
+      <c r="F53" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="41">
+        <v>43362</v>
+      </c>
+      <c r="D54" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="E54" s="43">
+        <v>1</v>
+      </c>
+      <c r="F54" s="43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="44">
+        <v>43362</v>
+      </c>
+      <c r="D55" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E55" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="F55" s="31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="41">
+        <v>43362</v>
+      </c>
+      <c r="D56" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E56" s="43">
+        <v>1</v>
+      </c>
+      <c r="F56" s="43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="44">
+        <v>43363</v>
+      </c>
+      <c r="D57" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E57" s="31">
+        <v>1</v>
+      </c>
+      <c r="F57" s="31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="41">
+        <v>43363</v>
+      </c>
+      <c r="D58" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="E58" s="43">
+        <v>2.5</v>
+      </c>
+      <c r="F58" s="43" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B59" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="44">
+        <v>43363</v>
+      </c>
+      <c r="D59" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E59" s="31">
+        <v>2</v>
+      </c>
+      <c r="F59" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="41">
+        <v>43363</v>
+      </c>
+      <c r="D60" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E60" s="43">
+        <v>2</v>
+      </c>
+      <c r="F60" s="43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="44">
+        <v>43363</v>
+      </c>
+      <c r="D61" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E61" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="F61" s="31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="41">
+        <v>43364</v>
+      </c>
+      <c r="D62" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="E62" s="43">
+        <v>2</v>
+      </c>
+      <c r="F62" s="43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="44">
+        <v>43364</v>
+      </c>
+      <c r="D63" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E63" s="31">
+        <v>1</v>
+      </c>
+      <c r="F63" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="30">
+        <v>43364</v>
+      </c>
+      <c r="D64" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="E64" s="30">
+        <v>1</v>
+      </c>
+      <c r="F64" s="30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="41">
+        <v>43364</v>
+      </c>
+      <c r="D65" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E65" s="43">
+        <v>1</v>
+      </c>
+      <c r="F65" s="42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="44">
+        <v>43364</v>
+      </c>
+      <c r="D66" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="E66" s="31">
+        <v>1</v>
+      </c>
+      <c r="F66" s="31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="41">
+        <v>43364</v>
+      </c>
+      <c r="D67" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="E67" s="43">
+        <v>1</v>
+      </c>
+      <c r="F67" s="43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="44">
+        <v>43364</v>
+      </c>
+      <c r="D68" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E68" s="31">
+        <v>2</v>
+      </c>
+      <c r="F68" s="31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C69" s="41">
+        <v>43362</v>
+      </c>
+      <c r="D69" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="E69" s="43">
+        <v>2.5</v>
+      </c>
+      <c r="F69" s="43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" s="44">
+        <v>43362</v>
+      </c>
+      <c r="D70" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="E70" s="31">
+        <v>1</v>
+      </c>
+      <c r="F70" s="31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C71" s="41">
+        <v>43362</v>
+      </c>
+      <c r="D71" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="E71" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="F71" s="43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B72" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72" s="44">
+        <v>43364</v>
+      </c>
+      <c r="D72" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E72" s="31">
         <v>3</v>
       </c>
-      <c r="F33" s="16" t="s">
+      <c r="F72" s="31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B73" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73" s="41">
+        <v>43364</v>
+      </c>
+      <c r="D73" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="E73" s="43">
+        <v>2</v>
+      </c>
+      <c r="F73" s="45" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D74" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="E74" s="20">
+        <f>SUM(E39:E73)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B77" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="C77" s="57"/>
+      <c r="D77" s="57"/>
+      <c r="E77" s="57"/>
+      <c r="F77" s="58"/>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B78" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F78" s="30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B79" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="2">
+        <v>43367</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E79" s="1">
+        <v>1</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B80" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" s="2">
+        <v>43367</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E80" s="1">
+        <v>3</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B81" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" s="2">
+        <v>43367</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E81" s="1">
+        <v>1</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B82" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" s="2">
+        <v>43368</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E82" s="1">
+        <v>2</v>
+      </c>
+      <c r="F82" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="14"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="E34" s="23">
-        <f>SUM(E8:E33)</f>
-        <v>49</v>
-      </c>
-      <c r="F34" s="14"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="20"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="2">
-        <v>43360</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E37" s="1">
-        <v>1</v>
-      </c>
-      <c r="F37" s="1" t="s">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" s="2">
+        <v>43368</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E83" s="1">
+        <v>3</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B84" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="2">
+        <v>43369</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E84" s="1">
+        <v>2</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B85" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" s="2">
+        <v>43369</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E85" s="1">
+        <v>1</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" s="2">
+        <v>43369</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E86" s="1">
+        <v>2</v>
+      </c>
+      <c r="F86" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="2">
-        <v>43360</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E38" s="1">
-        <v>1</v>
-      </c>
-      <c r="F38" s="1" t="s">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B87" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" s="2">
+        <v>43370</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E87" s="1">
+        <v>1</v>
+      </c>
+      <c r="F87" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="2">
-        <v>43360</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E39" s="1">
-        <v>2</v>
-      </c>
-      <c r="F39" s="1" t="s">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B88" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" s="2">
+        <v>43370</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E88" s="1">
+        <v>1</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B89" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C89" s="2">
+        <v>43370</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E89" s="1">
+        <v>1</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B90" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" s="2">
+        <v>43370</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E90" s="1">
+        <v>2</v>
+      </c>
+      <c r="F90" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" s="2">
-        <v>43360</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E40" s="1">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B91" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C91" s="2">
+        <v>43370</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E91" s="1">
+        <v>4</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" s="2">
+        <v>43370</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E92" s="1">
+        <v>1</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B93" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" s="2">
+        <v>43371</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E93" s="1">
+        <v>2</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B94" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" s="2">
+        <v>43371</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E94" s="1">
+        <v>1</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J94">
+        <f>5*4</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B95" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" s="2">
+        <v>43371</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E95" s="1">
+        <v>4</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B96" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96" s="2">
+        <v>43371</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E96" s="1">
+        <v>2</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B97" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C97" s="2">
+        <v>43371</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E97" s="1">
+        <v>3</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B98" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C98" s="2">
+        <v>43371</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E98" s="1">
+        <v>2</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D99" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="E99" s="50">
+        <f>SUM(E79:E98)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B102" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="C102" s="57"/>
+      <c r="D102" s="57"/>
+      <c r="E102" s="57"/>
+      <c r="F102" s="58"/>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B103" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D103" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E103" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F103" s="30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B104" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" s="2">
+        <v>43374</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E104" s="1">
+        <v>1</v>
+      </c>
+      <c r="F104" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" s="2">
-        <v>43361</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E41" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F41" s="1" t="s">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B105" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C105" s="2">
+        <v>43374</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E105" s="1">
+        <v>1</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B106" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" s="2">
+        <v>43374</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E106" s="1">
+        <v>1</v>
+      </c>
+      <c r="F106" s="52" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B107" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107" s="2">
+        <v>43374</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E107" s="1">
+        <v>5</v>
+      </c>
+      <c r="F107" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" s="2">
-        <v>43361</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E42" s="1">
-        <v>1</v>
-      </c>
-      <c r="F42" s="1" t="s">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B108" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108" s="2">
+        <v>43375</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E108" s="1">
+        <v>2</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B109" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C109" s="2">
+        <v>43375</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E109" s="1">
+        <v>2</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B110" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110" s="2">
+        <v>43375</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E110" s="1">
+        <v>1</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B111" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" s="2">
+        <v>43375</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E111" s="1">
+        <v>1</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B112" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C112" s="2">
+        <v>43375</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E112" s="1">
+        <v>1</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B113" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C113" s="2">
+        <v>43375</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E113" s="1">
+        <v>1</v>
+      </c>
+      <c r="F113" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" s="2">
-        <v>43361</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E43" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F43" s="1" t="s">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B114" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C114" s="2">
+        <v>43375</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E114" s="1">
+        <v>1</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B115" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C115" s="2">
+        <v>43376</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E115" s="1">
+        <v>1</v>
+      </c>
+      <c r="F115" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" s="2">
-        <v>43361</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E44" s="1">
-        <v>1</v>
-      </c>
-      <c r="F44" s="1" t="s">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B116" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C116" s="2">
+        <v>43376</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E116" s="1">
+        <v>1</v>
+      </c>
+      <c r="F116" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="2">
-        <v>43361</v>
-      </c>
-      <c r="D45" s="5" t="s">
+    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B117" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C117" s="2">
+        <v>43376</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E117" s="1">
+        <v>2</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B118" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C118" s="2">
+        <v>43376</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E118" s="1">
+        <v>2</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B119" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C119" s="2">
+        <v>43376</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E119" s="1">
+        <v>3</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B120" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C120" s="2">
+        <v>43377</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E120" s="1">
+        <v>2</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B121" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C121" s="2">
+        <v>43377</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E121" s="1">
+        <v>4</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B122" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C122" s="2">
+        <v>43377</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E122" s="1">
+        <v>1</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B123" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C123" s="2">
+        <v>43377</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E123" s="1">
+        <v>1</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B124" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C124" s="2">
+        <v>43377</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E124" s="1">
+        <v>1</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B125" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C125" s="2">
+        <v>43377</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E125" s="1">
+        <v>1</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B126" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C126" s="2">
+        <v>43377</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E126" s="1">
+        <v>1</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B127" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C127" s="2">
+        <v>43377</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E127" s="1">
+        <v>2</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B128" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C128" s="2">
+        <v>43378</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E128" s="1">
+        <v>8</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B129" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C129" s="2">
+        <v>43378</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E129" s="1">
+        <v>4</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D130" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="E130" s="50">
+        <f>SUM(E104:E129)</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B134" s="56" t="s">
+        <v>189</v>
+      </c>
+      <c r="C134" s="57"/>
+      <c r="D134" s="57"/>
+      <c r="E134" s="57"/>
+      <c r="F134" s="58"/>
+    </row>
+    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B135" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D135" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E135" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F135" s="30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B136" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C136" s="2">
+        <v>43381</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E136" s="1">
+        <v>2</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B137" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C137" s="2">
+        <v>43381</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E137" s="1">
+        <v>3</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B138" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C138" s="2">
+        <v>43381</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E138" s="1">
+        <v>2</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B139" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C139" s="2">
+        <v>43381</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E139" s="1">
+        <v>2</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B140" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C140" s="2">
+        <v>43382</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E140" s="1">
+        <v>3</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B141" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C141" s="2">
+        <v>43382</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E141" s="1">
+        <v>2</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="142" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B142" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C142" s="2">
+        <v>43383</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E142" s="1">
+        <v>4</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="143" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B143" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C143" s="2">
+        <v>43383</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E143" s="1">
+        <v>5</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="144" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B144" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C144" s="2">
+        <v>43384</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E144" s="1">
+        <v>4</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B145" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C145" s="2">
+        <v>43384</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E145" s="1">
+        <v>4</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B146" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C146" s="2">
+        <v>43384</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E146" s="1">
+        <v>4</v>
+      </c>
+      <c r="F146" s="1"/>
+    </row>
+    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B147" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C147" s="2">
+        <v>43384</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E147" s="1">
+        <v>1</v>
+      </c>
+      <c r="F147" s="1"/>
+    </row>
+    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B148" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C148" s="2">
+        <v>43385</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E148" s="1">
+        <v>5</v>
+      </c>
+      <c r="F148" s="1"/>
+    </row>
+    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E149">
+        <f>SUM(E136:E148)</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B152" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="C152" s="63"/>
+      <c r="D152" s="63"/>
+      <c r="E152" s="63"/>
+      <c r="F152" s="63"/>
+    </row>
+    <row r="153" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B153" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C153" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D153" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E153" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F153" s="30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B154" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C154" s="2">
+        <v>43389</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E154" s="1">
+        <v>3</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="155" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B155" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C155" s="2">
+        <v>43389</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E155" s="1">
+        <v>3</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="156" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B156" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C156" s="2">
+        <v>43389</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E156" s="1">
+        <v>3</v>
+      </c>
+      <c r="F156" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="157" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B157" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C157" s="2">
+        <v>43389</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E157" s="1">
+        <v>3</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="158" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B158" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C158" s="2">
+        <v>43390</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E158" s="1">
+        <v>5</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="159" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B159" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C159" s="2">
+        <v>43390</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E159" s="1">
+        <v>2</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="160" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B160" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C160" s="2">
+        <v>43390</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E160" s="1">
+        <v>2</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B161" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C161" s="2">
+        <v>43391</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E161" s="1">
+        <v>6</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="162" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B162" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C162" s="2">
+        <v>43391</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E162" s="1">
+        <v>3</v>
+      </c>
+      <c r="F162" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="163" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B163" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C163" s="2">
+        <v>43392</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E163" s="1">
+        <v>5</v>
+      </c>
+      <c r="F163" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="164" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B164" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C164" s="2">
+        <v>43392</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E164" s="1">
+        <v>5</v>
+      </c>
+      <c r="F164" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="165" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B165" s="62"/>
+      <c r="E165" s="64">
+        <f>SUM(E154:E164)</f>
         <v>40</v>
       </c>
-      <c r="E45" s="1">
-        <v>1</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" s="2">
-        <v>43361</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E46" s="1">
-        <v>1</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" s="2">
-        <v>43361</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E47" s="1">
-        <v>1</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" s="2">
-        <v>43361</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E48" s="1">
-        <v>2</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C49" s="2">
-        <v>43361</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E49" s="1">
-        <v>1</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="2">
-        <v>43362</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E50" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C51" s="2">
-        <v>43362</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E51" s="1">
-        <v>4</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" s="6">
-        <v>43362</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E52" s="1">
-        <v>1</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53" s="6">
-        <v>43362</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E53" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54" s="6">
-        <v>43362</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E54" s="1">
-        <v>1</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C55" s="2">
-        <v>43363</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E55" s="1">
-        <v>1</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C56" s="2">
-        <v>43363</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E56" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B57" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C57" s="2">
-        <v>43363</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E57" s="1">
-        <v>2</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C58" s="2">
-        <v>43363</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E58" s="1">
-        <v>2</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B59" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C59" s="2">
-        <v>43363</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E59" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B60" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C60" s="2">
-        <v>43364</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E60" s="1">
-        <v>2</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B61" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C61" s="2">
-        <v>43364</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E61" s="1">
-        <v>1</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B62" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" s="2">
-        <v>43364</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E62" s="1">
-        <v>1</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B63" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C63" s="2">
-        <v>43364</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E63" s="1">
-        <v>1</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C64" s="2">
-        <v>43364</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E64" s="1">
-        <v>1</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B65" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C65" s="2">
-        <v>43364</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E65" s="1">
-        <v>1</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B66" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" s="2">
-        <v>43364</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E66" s="1">
-        <v>2</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B67" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C67" s="17">
-        <v>43362</v>
-      </c>
-      <c r="D67" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="E67" s="16">
-        <v>2.5</v>
-      </c>
-      <c r="F67" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B68" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C68" s="17">
-        <v>43362</v>
-      </c>
-      <c r="D68" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="E68" s="16">
-        <v>1</v>
-      </c>
-      <c r="F68" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B69" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C69" s="17">
-        <v>43362</v>
-      </c>
-      <c r="D69" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E69" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="F69" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B70" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C70" s="17">
-        <v>43364</v>
-      </c>
-      <c r="D70" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="E70" s="16">
-        <v>3</v>
-      </c>
-      <c r="F70" s="16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B71" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C71" s="17">
-        <v>43364</v>
-      </c>
-      <c r="D71" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="E71" s="16">
-        <v>2</v>
-      </c>
-      <c r="F71" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D72" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="E72" s="22">
-        <f>SUM(E37:E71)</f>
-        <v>54</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B36:F36"/>
+  <autoFilter ref="B38:F74" xr:uid="{39AFCF60-E61A-4E86-9C54-CDDB0CEF1358}"/>
+  <mergeCells count="7">
+    <mergeCell ref="B134:F134"/>
+    <mergeCell ref="B152:F152"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B7:F7"/>
     <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B77:F77"/>
+    <mergeCell ref="B102:F102"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4B6203-6B7A-4A04-9578-1DED0D7947ED}">
+  <dimension ref="E1:F18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="89.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E1" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="61"/>
+    </row>
+    <row r="2" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E2" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E3" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E4" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E6" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E8" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E9" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="29">
+        <f>SUM(F3:F8)</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E11" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" s="61"/>
+    </row>
+    <row r="12" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E12" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E13" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" s="31">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="14" spans="5:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E14" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" s="32">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="15" spans="5:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="E15" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="F15" s="31">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E16" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E17" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" s="31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E18" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="32">
+        <f>SUM(F11:F16)</f>
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E11:F11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Stefanini/Stefanini.Clientes/Stefanini.Cliente.Experian/Informes.xlsx
+++ b/Stefanini/Stefanini.Clientes/Stefanini.Cliente.Experian/Informes.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e10991a\Documents\Experian.Agile\Experian.Equipos\Experian.Nucleo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\omesan\Agile\Stefanini\Stefanini.Clientes\Stefanini.Cliente.Experian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{968BEF0F-1BBE-4632-A0CE-F094D5844494}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7485" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte Horas" sheetId="2" r:id="rId1"/>
@@ -764,7 +763,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1107,6 +1106,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1122,6 +1128,9 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1130,16 +1139,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1222,7 +1221,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -1390,7 +1388,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -1738,6 +1735,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1745,7 +1743,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2383,7 +2380,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ome, Erwin" refreshedDate="43371.369307870373" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="26" xr:uid="{564F3B08-9F44-45A8-86B8-A1AB9C80EB81}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Ome, Erwin" refreshedDate="43371.369307870373" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="26">
   <cacheSource type="worksheet">
     <worksheetSource ref="B8:F34" sheet="Ejecutado"/>
   </cacheSource>
@@ -2447,7 +2444,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ome, Erwin" refreshedDate="43371.374114467595" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="26" xr:uid="{9E38AF08-A079-4E65-88C5-09B2118E975D}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Ome, Erwin" refreshedDate="43371.374114467595" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="26">
   <cacheSource type="worksheet">
     <worksheetSource ref="B8:F34" sheet="Ejecutado"/>
   </cacheSource>
@@ -2484,7 +2481,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ome, Erwin" refreshedDate="43371.374483680556" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="26" xr:uid="{A58A634E-9027-4A76-860A-1ACD6309D26F}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Ome, Erwin" refreshedDate="43371.374483680556" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="26">
   <cacheSource type="worksheet">
     <worksheetSource ref="B8:F34" sheet="Ejecutado"/>
   </cacheSource>
@@ -3112,7 +3109,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5405F74C-4CF7-47BA-952C-CAD22B5FA6C7}" name="TablaDinámica20" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="Objetivos">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica20" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="Objetivos">
   <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -3218,7 +3215,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EDED834B-776B-4698-A8C8-5F3ABCC782E0}" name="TablaDinámica22" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica22" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -3291,7 +3288,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{211E3A86-73D0-4433-9F57-D4CC7BFBEC31}" name="TablaDinámica24" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica24" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:H31" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0">
@@ -3474,28 +3471,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DE4DA5A6-F304-4EB6-9B59-EFEAAA70B03F}" name="Tabla5" displayName="Tabla5" ref="B8:F34" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11">
-  <autoFilter ref="B8:F34" xr:uid="{A22BA87C-6159-44DE-841D-219665E12798}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla5" displayName="Tabla5" ref="B8:F34" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11">
+  <autoFilter ref="B8:F34"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{4E0857E9-04F9-41FE-B48C-A523ECEBF817}" name="Coach" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{E9F08946-A6D3-4BC4-8996-D326CD9B2C4E}" name="Fecha" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{61C73E13-B97E-4D46-91CE-040F896B98F7}" name="Actividad" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{E3662C56-A11C-4774-A4D5-3B55EDE93449}" name="Tiempo" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{D22F9E83-9498-4E54-8108-E49F9824B67E}" name="Objetivos" dataDxfId="6"/>
+    <tableColumn id="1" name="Coach" dataDxfId="10"/>
+    <tableColumn id="2" name="Fecha" dataDxfId="9"/>
+    <tableColumn id="3" name="Actividad" dataDxfId="8"/>
+    <tableColumn id="4" name="Tiempo" dataDxfId="7"/>
+    <tableColumn id="5" name="Objetivos" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{792B2493-DCB4-4324-A084-4C91F708B6F3}" name="Tabla3" displayName="Tabla3" ref="E2:F9" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
-  <autoFilter ref="E2:F9" xr:uid="{176D6AF5-6A8F-422E-B05C-0DD48D976B27}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="E2:F9" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+  <autoFilter ref="E2:F9">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{EF3CF903-A4B5-4D68-BE03-2E98450427B4}" name="Objetivos " dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{1AD8D33D-59CD-4A57-906B-C712D016754A}" name="Horas" dataDxfId="0"/>
+    <tableColumn id="1" name="Objetivos " dataDxfId="1"/>
+    <tableColumn id="2" name="Horas" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3797,10 +3794,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Y16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -3959,19 +3956,19 @@
       <c r="T3" s="1">
         <v>9</v>
       </c>
-      <c r="U3" s="62">
+      <c r="U3" s="54">
         <v>9</v>
       </c>
-      <c r="V3" s="62">
+      <c r="V3" s="54">
         <v>9</v>
       </c>
-      <c r="W3" s="62">
+      <c r="W3" s="54">
         <v>9</v>
       </c>
-      <c r="X3" s="62">
+      <c r="X3" s="54">
         <v>9</v>
       </c>
-      <c r="Y3" s="62">
+      <c r="Y3" s="54">
         <v>4</v>
       </c>
     </row>
@@ -4467,7 +4464,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I74"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
@@ -4484,13 +4481,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
       <c r="I2" t="s">
         <v>61</v>
       </c>
@@ -4849,13 +4846,13 @@
       </c>
     </row>
     <row r="26" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="55" t="s">
+      <c r="B26" s="58" t="s">
         <v>160</v>
       </c>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
@@ -5212,7 +5209,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="48" t="s">
         <v>2</v>
       </c>
@@ -5239,13 +5236,13 @@
       </c>
     </row>
     <row r="53" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B53" s="55" t="s">
+      <c r="B53" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="C53" s="55"/>
-      <c r="D53" s="55"/>
-      <c r="E53" s="55"/>
-      <c r="F53" s="55"/>
+      <c r="C53" s="58"/>
+      <c r="D53" s="58"/>
+      <c r="E53" s="58"/>
+      <c r="F53" s="58"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="9" t="s">
@@ -5350,7 +5347,7 @@
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
-      <c r="I63" s="65"/>
+      <c r="I63" s="56"/>
     </row>
     <row r="64" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
@@ -5360,7 +5357,7 @@
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
-      <c r="I64" s="65"/>
+      <c r="I64" s="56"/>
     </row>
     <row r="65" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
@@ -5370,7 +5367,7 @@
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
-      <c r="I65" s="65"/>
+      <c r="I65" s="56"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
@@ -5380,7 +5377,7 @@
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
-      <c r="I66" s="65"/>
+      <c r="I66" s="56"/>
     </row>
     <row r="67" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
@@ -5466,7 +5463,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{717EC465-B751-407B-9EB5-6C56E3C1F1D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5550,7 +5547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FB4650F-C08E-40D3-BE01-093958EA4376}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5658,7 +5655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D305536E-E001-4D9F-9D7A-165FB1C3829A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6159,11 +6156,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J165"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="D158" sqref="D158"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6176,13 +6173,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="61"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="65"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="30" t="s">
@@ -6248,13 +6245,13 @@
       <c r="D6" s="19"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="61"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="65"/>
       <c r="H7" t="s">
         <v>61</v>
       </c>
@@ -6756,13 +6753,13 @@
       <c r="F36" s="18"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="56" t="s">
+      <c r="B37" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="58"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="61"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="30" t="s">
@@ -7386,13 +7383,13 @@
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B77" s="56" t="s">
+      <c r="B77" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="C77" s="57"/>
-      <c r="D77" s="57"/>
-      <c r="E77" s="57"/>
-      <c r="F77" s="58"/>
+      <c r="C77" s="60"/>
+      <c r="D77" s="60"/>
+      <c r="E77" s="60"/>
+      <c r="F77" s="61"/>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B78" s="30" t="s">
@@ -7765,13 +7762,13 @@
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B102" s="56" t="s">
+      <c r="B102" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="C102" s="57"/>
-      <c r="D102" s="57"/>
-      <c r="E102" s="57"/>
-      <c r="F102" s="58"/>
+      <c r="C102" s="60"/>
+      <c r="D102" s="60"/>
+      <c r="E102" s="60"/>
+      <c r="F102" s="61"/>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B103" s="30" t="s">
@@ -8242,13 +8239,13 @@
       </c>
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B134" s="56" t="s">
+      <c r="B134" s="59" t="s">
         <v>189</v>
       </c>
-      <c r="C134" s="57"/>
-      <c r="D134" s="57"/>
-      <c r="E134" s="57"/>
-      <c r="F134" s="58"/>
+      <c r="C134" s="60"/>
+      <c r="D134" s="60"/>
+      <c r="E134" s="60"/>
+      <c r="F134" s="61"/>
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B135" s="30" t="s">
@@ -8489,13 +8486,13 @@
       </c>
     </row>
     <row r="152" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B152" s="63" t="s">
+      <c r="B152" s="62" t="s">
         <v>199</v>
       </c>
-      <c r="C152" s="63"/>
-      <c r="D152" s="63"/>
-      <c r="E152" s="63"/>
-      <c r="F152" s="63"/>
+      <c r="C152" s="62"/>
+      <c r="D152" s="62"/>
+      <c r="E152" s="62"/>
+      <c r="F152" s="62"/>
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B153" s="30" t="s">
@@ -8702,14 +8699,14 @@
       </c>
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B165" s="62"/>
-      <c r="E165" s="64">
+      <c r="B165" s="54"/>
+      <c r="E165" s="55">
         <f>SUM(E154:E164)</f>
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B38:F74" xr:uid="{39AFCF60-E61A-4E86-9C54-CDDB0CEF1358}"/>
+  <autoFilter ref="B38:F74"/>
   <mergeCells count="7">
     <mergeCell ref="B134:F134"/>
     <mergeCell ref="B152:F152"/>
@@ -8728,7 +8725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4B6203-6B7A-4A04-9578-1DED0D7947ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8741,10 +8738,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="61"/>
+      <c r="F1" s="65"/>
     </row>
     <row r="2" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E2" s="26" t="s">
@@ -8812,10 +8809,10 @@
       </c>
     </row>
     <row r="11" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E11" s="59" t="s">
+      <c r="E11" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="F11" s="61"/>
+      <c r="F11" s="65"/>
     </row>
     <row r="12" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E12" s="30" t="s">
